--- a/results/pvalue_OFFSIDES_all_pathway_AUROCperdrug.xlsx
+++ b/results/pvalue_OFFSIDES_all_pathway_AUROCperdrug.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>264.046</t>
+          <t>16.463</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>294.641</t>
+          <t>17.543</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>262.368</t>
+          <t>17.825</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>272.333</t>
+          <t>14.999</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-15.259</t>
+          <t>18.304</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
